--- a/tabular/wnv.missing-country-added.xlsx
+++ b/tabular/wnv.missing-country-added.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/arbovirus/WNV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E6D281-7A5D-E848-9CE8-F0CDA50C7B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6E5CF3-AAD6-6B48-8CEA-2C8472EB43ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="1500" windowWidth="26740" windowHeight="15940" xr2:uid="{F0FDDFCE-2CB6-7941-A393-4E8D5CF28ECC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="236">
   <si>
     <t>sequenceID</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t>OP561452</t>
+  </si>
+  <si>
+    <t>missing_country</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0045A6-414C-344F-A92B-6E1D6AF49FBF}">
   <dimension ref="A1:B230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B124" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1832,7 +1835,7 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:2">
